--- a/data/metadata/mapping-ano-de-construccion.xlsx
+++ b/data/metadata/mapping-ano-de-construccion.xlsx
@@ -13,25 +13,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
-    <t>no-aplicable</t>
+    <t xml:space="preserve">  No aplicable</t>
   </si>
   <si>
     <t>http://opendata.aragon.es/kos/iaest/ano-de-construccion/no-aplicable</t>
   </si>
   <si>
-    <t>1951-a-1960</t>
+    <t>1951 a 1960</t>
   </si>
   <si>
     <t>http://opendata.aragon.es/kos/iaest/ano-de-construccion/1951-a-1960</t>
   </si>
   <si>
-    <t>1941-1950</t>
+    <t>1941 - 1950</t>
   </si>
   <si>
     <t>http://opendata.aragon.es/kos/iaest/ano-de-construccion/1941-1950</t>
   </si>
   <si>
-    <t>antes-1900</t>
+    <t>Antes 1900</t>
   </si>
   <si>
     <t>http://opendata.aragon.es/kos/iaest/ano-de-construccion/antes-1900</t>
@@ -40,13 +40,13 @@
     <t>http://opendata.aragon.es/kos/iaest/ano-de-construccion/2011</t>
   </si>
   <si>
-    <t>1900-1920</t>
+    <t>1900 - 1920</t>
   </si>
   <si>
     <t>http://opendata.aragon.es/kos/iaest/ano-de-construccion/1900-1920</t>
   </si>
   <si>
-    <t>1971-a-1980</t>
+    <t>1971 a 1980</t>
   </si>
   <si>
     <t>http://opendata.aragon.es/kos/iaest/ano-de-construccion/1971-a-1980</t>
@@ -55,7 +55,7 @@
     <t>http://opendata.aragon.es/kos/iaest/ano-de-construccion/2010</t>
   </si>
   <si>
-    <t>1961-1970</t>
+    <t>1961 - 1970</t>
   </si>
   <si>
     <t>http://opendata.aragon.es/kos/iaest/ano-de-construccion/1961-1970</t>
@@ -70,7 +70,7 @@
     <t>http://opendata.aragon.es/kos/iaest/ano-de-construccion/1997</t>
   </si>
   <si>
-    <t>1921-a-1940</t>
+    <t>1921 a 1940</t>
   </si>
   <si>
     <t>http://opendata.aragon.es/kos/iaest/ano-de-construccion/1921-a-1940</t>
@@ -100,7 +100,7 @@
     <t>http://opendata.aragon.es/kos/iaest/ano-de-construccion/1993</t>
   </si>
   <si>
-    <t>1981-a-1990</t>
+    <t>1981 a 1990</t>
   </si>
   <si>
     <t>http://opendata.aragon.es/kos/iaest/ano-de-construccion/1981-a-1990</t>
@@ -121,13 +121,13 @@
     <t>http://opendata.aragon.es/kos/iaest/ano-de-construccion/2002</t>
   </si>
   <si>
-    <t>1951-1960</t>
+    <t>1951 - 1960</t>
   </si>
   <si>
     <t>http://opendata.aragon.es/kos/iaest/ano-de-construccion/1951-1960</t>
   </si>
   <si>
-    <t>1991-a-2001</t>
+    <t>1991 a 2001</t>
   </si>
   <si>
     <t>http://opendata.aragon.es/kos/iaest/ano-de-construccion/1991-a-2001</t>
@@ -136,13 +136,13 @@
     <t>http://opendata.aragon.es/kos/iaest/ano-de-construccion/1999</t>
   </si>
   <si>
-    <t>1941-a-1950</t>
+    <t>1941 a 1950</t>
   </si>
   <si>
     <t>http://opendata.aragon.es/kos/iaest/ano-de-construccion/1941-a-1950</t>
   </si>
   <si>
-    <t>1921-1940</t>
+    <t>1921 - 1940</t>
   </si>
   <si>
     <t>http://opendata.aragon.es/kos/iaest/ano-de-construccion/1921-1940</t>
@@ -154,31 +154,31 @@
     <t>http://opendata.aragon.es/kos/iaest/ano-de-construccion/2000</t>
   </si>
   <si>
-    <t>1971-1980</t>
+    <t>1971 - 1980</t>
   </si>
   <si>
     <t>http://opendata.aragon.es/kos/iaest/ano-de-construccion/1971-1980</t>
   </si>
   <si>
-    <t>1900-a-1920</t>
+    <t>1900 a 1920</t>
   </si>
   <si>
     <t>http://opendata.aragon.es/kos/iaest/ano-de-construccion/1900-a-1920</t>
   </si>
   <si>
-    <t>1981-1990</t>
+    <t>1981 - 1990</t>
   </si>
   <si>
     <t>http://opendata.aragon.es/kos/iaest/ano-de-construccion/1981-1990</t>
   </si>
   <si>
-    <t>1961-a-1970</t>
+    <t>1961 a 1970</t>
   </si>
   <si>
     <t>http://opendata.aragon.es/kos/iaest/ano-de-construccion/1961-a-1970</t>
   </si>
   <si>
-    <t>antes-de-1900</t>
+    <t xml:space="preserve"> Antes de 1900</t>
   </si>
   <si>
     <t>http://opendata.aragon.es/kos/iaest/ano-de-construccion/antes-de-1900</t>
